--- a/data/georgia_census/adjara/shuaxevi/average_wages.xlsx
+++ b/data/georgia_census/adjara/shuaxevi/average_wages.xlsx
@@ -1098,13 +1098,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1547F26-01FF-40B0-8830-1AAB7B46514A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B6603547-6B49-46B0-80DF-3954AA637E1C}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54B7401B-C199-426D-B4F8-627107DB4085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4BC672-C899-4E8F-A6A9-213DB5870843}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AB4A37F-D9F9-486F-8282-FB73AB68B6A9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F40D26E-58BC-4067-A0BD-6AA37C9D68FA}"/>
 </file>